--- a/excel_python/03/data/sales/1001.xlsx
+++ b/excel_python/03/data/sales/1001.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuri/Dropbox/My Works/Text/번역/Excel x Python으로 빠른 퇴근하는 방법 [2020.03.02]/9593/日経BP/excel_python/03/data/sales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitAdd\excel_python\03\data\sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B556D316-C102-6240-A1CD-3C031281F67D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="16540" windowHeight="12940" activeTab="1" xr2:uid="{17AF3F0A-90C1-4B4B-A29A-4DF20E964FF9}"/>
+    <workbookView xWindow="936" yWindow="456" windowWidth="16536" windowHeight="12936"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -144,16 +143,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0_ "/>
-    <numFmt numFmtId="165" formatCode="00000"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -161,13 +160,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -175,7 +174,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -184,7 +183,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -262,10 +261,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -298,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -307,7 +306,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -357,9 +356,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - 강조색3" xfId="2" builtinId="39"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,29 +669,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072DA928-A823-4C4B-9479-2DFD6B29BDCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
@@ -703,7 +702,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -717,7 +716,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12"/>
       <c r="B3" s="25" t="s">
         <v>7</v>
@@ -733,7 +732,7 @@
       </c>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="18">
@@ -745,7 +744,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -757,7 +756,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -769,7 +768,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -785,7 +784,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
@@ -809,7 +808,7 @@
       </c>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -834,7 +833,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -857,7 +856,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>3</v>
       </c>
@@ -882,7 +881,7 @@
       </c>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>4</v>
       </c>
@@ -894,7 +893,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>5</v>
       </c>
@@ -906,7 +905,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>6</v>
       </c>
@@ -918,7 +917,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>7</v>
       </c>
@@ -930,7 +929,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>8</v>
       </c>
@@ -942,7 +941,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>9</v>
       </c>
@@ -954,7 +953,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>10</v>
       </c>
@@ -966,7 +965,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -978,7 +977,7 @@
         <v>140800</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
@@ -990,7 +989,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1022,29 +1021,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17020912-EEEA-4787-8314-EC656D2DAEE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1054,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>1010982</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="31" t="s">
         <v>25</v>
       </c>
@@ -1075,22 +1074,22 @@
         <v>43785</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F5" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F6" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1124,7 @@
       </c>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -1150,7 +1149,7 @@
       </c>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -1175,7 +1174,7 @@
       </c>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -1187,7 +1186,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>4</v>
       </c>
@@ -1199,7 +1198,7 @@
       <c r="G12" s="29"/>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -1211,7 +1210,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>6</v>
       </c>
@@ -1223,7 +1222,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>7</v>
       </c>
@@ -1235,7 +1234,7 @@
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>8</v>
       </c>
@@ -1247,7 +1246,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>9</v>
       </c>
@@ -1259,7 +1258,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>10</v>
       </c>
@@ -1271,7 +1270,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1283,7 +1282,7 @@
         <v>151200</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
